--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18572.14989513771</v>
+        <v>-2483.936981113919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18289929.28687748</v>
+        <v>18750273.47559707</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21089136.11540287</v>
+        <v>21053405.36034583</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2904012.977542632</v>
+        <v>2889321.954658575</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K11" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L11" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M11" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N11" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P11" t="n">
-        <v>47.80529457412447</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R11" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K12" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L12" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L13" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M13" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N13" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O13" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P13" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K14" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L14" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M14" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N14" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P14" t="n">
-        <v>47.80529457412447</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R14" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K15" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L15" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9085,25 +9087,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L16" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M16" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N16" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O16" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P16" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K17" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L17" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M17" t="n">
-        <v>24.57017591372333</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N17" t="n">
-        <v>21.93847891981889</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P17" t="n">
-        <v>47.80529457412449</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.52835632263866</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R17" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K18" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L18" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9322,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>46.7128781258432</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L19" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M19" t="n">
-        <v>40.18407651519696</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N19" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O19" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P19" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K20" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L20" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M20" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N20" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P20" t="n">
-        <v>47.80529457412447</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R20" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K21" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L21" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L22" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M22" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N22" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O22" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P22" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K23" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L23" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M23" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N23" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P23" t="n">
-        <v>47.80529457412447</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R23" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K24" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L24" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,25 +9798,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L25" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M25" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N25" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O25" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P25" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K26" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L26" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M26" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N26" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P26" t="n">
-        <v>47.80529457412447</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R26" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K27" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L27" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,25 +10035,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L28" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M28" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N28" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O28" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P28" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K29" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L29" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M29" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N29" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P29" t="n">
-        <v>47.80529457412447</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R29" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K30" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L30" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,25 +10272,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L31" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M31" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N31" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O31" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P31" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K32" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L32" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M32" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N32" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P32" t="n">
-        <v>47.80529457412447</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R32" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K33" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L33" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,25 +10509,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L34" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M34" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N34" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O34" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P34" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K35" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L35" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M35" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N35" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P35" t="n">
-        <v>47.80529457412447</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R35" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K36" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L36" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L37" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M37" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N37" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O37" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P37" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K38" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L38" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M38" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N38" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P38" t="n">
-        <v>47.80529457412447</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R38" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K39" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L39" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,25 +10983,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L40" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M40" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N40" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O40" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P40" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>57.18500331883706</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K41" t="n">
-        <v>52.3923277467251</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L41" t="n">
-        <v>40.76888591365314</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M41" t="n">
-        <v>24.57017591372332</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N41" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>29.47135809837134</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P41" t="n">
-        <v>47.80529457412447</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.52835632263864</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R41" t="n">
-        <v>95.3575259796454</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>46.41414826267754</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K42" t="n">
-        <v>28.0153983083886</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L42" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>14.26002345548694</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.30767800655386</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,25 +11220,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>46.71287812584319</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L43" t="n">
-        <v>40.14128161656321</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M43" t="n">
-        <v>40.18407651519697</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N43" t="n">
-        <v>34.06960733607244</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O43" t="n">
-        <v>44.80567326267629</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P43" t="n">
-        <v>50.85442948880793</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.70599689336677</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>57.18500331883706</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K44" t="n">
-        <v>52.3923277467251</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L44" t="n">
-        <v>40.76888591365314</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M44" t="n">
-        <v>24.57017591372332</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N44" t="n">
-        <v>21.93847891981888</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>29.47135809837134</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P44" t="n">
-        <v>47.80529457412447</v>
+        <v>27.73484032479854</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.52835632263864</v>
+        <v>52.45628103597114</v>
       </c>
       <c r="R44" t="n">
-        <v>95.3575259796454</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>46.41414826267754</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K45" t="n">
-        <v>28.0153983083886</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L45" t="n">
-        <v>7.256370693192508</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.951930266454212</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>14.26002345548694</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.30767800655386</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>46.71287812584319</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L46" t="n">
-        <v>40.14128161656321</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M46" t="n">
-        <v>40.18407651519697</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N46" t="n">
-        <v>34.06960733607244</v>
+        <v>24.48908211499989</v>
       </c>
       <c r="O46" t="n">
-        <v>44.80567326267629</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P46" t="n">
-        <v>50.85442948880793</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.70599689336677</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H11" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I11" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U11" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,13 +23351,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H12" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I12" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T12" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,16 +23430,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J13" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S13" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T13" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U13" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H14" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I14" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U14" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,13 +23588,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H15" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I15" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T15" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,16 +23667,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J16" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S16" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T16" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U16" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H17" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I17" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U17" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,13 +23825,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H18" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I18" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T18" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I19" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J19" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S19" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T19" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U19" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H20" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I20" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U20" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H21" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T21" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,16 +24141,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I22" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J22" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S22" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T22" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U22" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24218,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H23" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I23" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U23" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24297,13 +24299,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H24" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I24" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T24" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24376,16 +24378,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I25" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J25" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S25" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T25" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U25" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24455,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H26" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I26" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U26" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,13 +24536,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H27" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T27" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24613,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I28" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J28" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S28" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T28" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U28" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24692,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H29" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I29" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U29" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24771,13 +24773,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H30" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T30" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24850,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H31" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I31" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J31" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S31" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T31" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U31" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24929,13 +24931,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H32" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I32" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U32" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25008,13 +25010,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H33" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I33" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T33" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25087,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H34" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I34" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J34" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S34" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T34" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U34" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25166,13 +25168,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H35" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I35" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U35" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25245,13 +25247,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H36" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I36" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T36" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25324,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H37" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I37" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J37" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S37" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T37" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U37" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25403,13 +25405,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H38" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I38" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U38" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25482,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H39" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I39" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T39" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H40" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I40" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J40" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S40" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T40" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U40" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.3183653580343</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H41" t="n">
-        <v>313.5426399637784</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I41" t="n">
-        <v>109.4749656465842</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>148.6063417872364</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1454781397444</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U41" t="n">
-        <v>253.13818126184</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25719,13 +25721,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H42" t="n">
-        <v>83.73129193720239</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I42" t="n">
-        <v>35.7631680781389</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>126.4977456638763</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T42" t="n">
-        <v>173.6768187675274</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25798,16 +25800,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.251792597437</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H43" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I43" t="n">
-        <v>122.1486057667267</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J43" t="n">
-        <v>7.47022944944527</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.2861712983158</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S43" t="n">
-        <v>195.2160620265254</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T43" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U43" t="n">
-        <v>282.566964526112</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.3183653580343</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H44" t="n">
-        <v>313.5426399637784</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I44" t="n">
-        <v>109.4749656465842</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>148.6063417872364</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1454781397444</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U44" t="n">
-        <v>253.13818126184</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4778581375962</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H45" t="n">
-        <v>83.73129193720239</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I45" t="n">
-        <v>35.7631680781389</v>
+        <v>33.19205355460607</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>126.4977456638763</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T45" t="n">
-        <v>173.6768187675274</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9374223084566</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.251792597437</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H46" t="n">
-        <v>151.0811572799257</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I46" t="n">
-        <v>122.1486057667267</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J46" t="n">
-        <v>7.47022944944527</v>
+        <v>3.043939147996856</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>108.2861712983158</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S46" t="n">
-        <v>195.2160620265254</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T46" t="n">
-        <v>231.9957816849699</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U46" t="n">
-        <v>282.566964526112</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>249697.186264715</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>249697.186264715</v>
+        <v>247852.4885750521</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>41330.11154675335</v>
       </c>
       <c r="E2" t="n">
-        <v>44307.13593381782</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="F2" t="n">
-        <v>44307.13593381782</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="G2" t="n">
-        <v>44307.13593381781</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="H2" t="n">
-        <v>44307.1359338178</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="I2" t="n">
-        <v>44307.13593381781</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="J2" t="n">
-        <v>44307.1359338178</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="K2" t="n">
-        <v>44307.13593381781</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="L2" t="n">
-        <v>44307.1359338178</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="M2" t="n">
-        <v>44307.1359338178</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="N2" t="n">
-        <v>44307.13593381781</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="O2" t="n">
-        <v>44307.13593381781</v>
+        <v>44631.01950030126</v>
       </c>
       <c r="P2" t="n">
-        <v>44307.1359338178</v>
+        <v>44674.79975877233</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142443.1080367189</v>
+        <v>167014.4621632389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2751.583545217711</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581098</v>
       </c>
       <c r="C4" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581098</v>
       </c>
       <c r="D4" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581098</v>
       </c>
       <c r="E4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="F4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="G4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="H4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="I4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="J4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="K4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="L4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="M4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="N4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="O4" t="n">
-        <v>12049.82080151043</v>
+        <v>8630.342234784783</v>
       </c>
       <c r="P4" t="n">
-        <v>12049.82080151043</v>
+        <v>8233.108050727787</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="F5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="G5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="H5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="I5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="J5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="K5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="L5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="M5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="N5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="O5" t="n">
-        <v>3865.133382873192</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="P5" t="n">
-        <v>3865.133382873192</v>
+        <v>4621.990891278247</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26113.03426422666</v>
+        <v>-26113.03426422665</v>
       </c>
       <c r="C6" t="n">
-        <v>-26113.03426422666</v>
+        <v>-26113.03426422665</v>
       </c>
       <c r="D6" t="n">
         <v>-26113.03426422666</v>
       </c>
       <c r="E6" t="n">
-        <v>-114050.9262872847</v>
+        <v>-135545.6515638397</v>
       </c>
       <c r="F6" t="n">
-        <v>28392.18174943419</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="G6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="H6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="I6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="J6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939921</v>
       </c>
       <c r="K6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="L6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="M6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="N6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="O6" t="n">
-        <v>28392.18174943418</v>
+        <v>31468.81059939922</v>
       </c>
       <c r="P6" t="n">
-        <v>28392.18174943418</v>
+        <v>29068.11727154858</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="F3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="G3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="H3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="I3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="J3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="K3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="L3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="M3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="N3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="O3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="P3" t="n">
-        <v>177.299696462073</v>
+        <v>212.0179307925801</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>177.299696462073</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.134138768852409</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H11" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I11" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J11" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K11" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L11" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M11" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N11" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P11" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R11" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S11" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T11" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H12" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I12" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J12" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K12" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L12" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>92.38712204931191</v>
@@ -31853,25 +31855,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S12" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T12" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H13" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I13" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J13" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K13" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L13" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M13" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N13" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O13" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P13" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R13" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S13" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T13" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H14" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I14" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J14" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K14" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L14" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M14" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N14" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q14" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R14" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S14" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T14" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H15" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I15" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J15" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K15" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L15" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -32090,25 +32092,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S15" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T15" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H16" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I16" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J16" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K16" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L16" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M16" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N16" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O16" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P16" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R16" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S16" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T16" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H17" t="n">
-        <v>7.299579965395798</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I17" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J17" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K17" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L17" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M17" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N17" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P17" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.97034209575351</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R17" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S17" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T17" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H18" t="n">
-        <v>3.683150298202687</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I18" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J18" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K18" t="n">
-        <v>61.58153702494474</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L18" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
@@ -32327,25 +32329,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S18" t="n">
-        <v>7.083624665253574</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T18" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3197207641119349</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H19" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I19" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J19" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K19" t="n">
-        <v>37.14573968500479</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L19" t="n">
-        <v>47.53375796624167</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M19" t="n">
-        <v>50.11768305074631</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N19" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O19" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P19" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R19" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S19" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T19" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H20" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I20" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J20" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K20" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L20" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M20" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N20" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R20" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S20" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T20" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H21" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I21" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J21" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K21" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L21" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
@@ -32564,25 +32566,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q21" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S21" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T21" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H22" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I22" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J22" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K22" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L22" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M22" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N22" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O22" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P22" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R22" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S22" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T22" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H23" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I23" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J23" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K23" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L23" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M23" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N23" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q23" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R23" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S23" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T23" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H24" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I24" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J24" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K24" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L24" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
@@ -32801,25 +32803,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q24" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S24" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T24" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H25" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I25" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J25" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K25" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L25" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M25" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N25" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O25" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P25" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R25" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S25" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T25" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H26" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I26" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J26" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K26" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L26" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M26" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N26" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R26" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S26" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T26" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H27" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I27" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J27" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K27" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L27" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
@@ -33038,25 +33040,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q27" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S27" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T27" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H28" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I28" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J28" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K28" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L28" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M28" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N28" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O28" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P28" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R28" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S28" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T28" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H29" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I29" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J29" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K29" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L29" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M29" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N29" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R29" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S29" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T29" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H30" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I30" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J30" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K30" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L30" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>92.38712204931191</v>
@@ -33275,25 +33277,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q30" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S30" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T30" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H31" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I31" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J31" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K31" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L31" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M31" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N31" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O31" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P31" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R31" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S31" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T31" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H32" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I32" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J32" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K32" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L32" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M32" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N32" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q32" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R32" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S32" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T32" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H33" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I33" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J33" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K33" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L33" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
@@ -33512,25 +33514,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q33" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S33" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T33" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H34" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I34" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J34" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K34" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L34" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M34" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N34" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O34" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P34" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R34" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S34" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T34" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H35" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I35" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J35" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K35" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L35" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M35" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N35" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P35" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q35" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R35" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S35" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T35" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H36" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I36" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J36" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K36" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L36" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>92.38712204931191</v>
@@ -33749,25 +33751,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S36" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T36" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H37" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I37" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J37" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K37" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L37" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M37" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N37" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O37" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P37" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R37" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S37" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T37" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H38" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I38" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J38" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K38" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L38" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M38" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N38" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P38" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R38" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S38" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T38" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H39" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I39" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J39" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K39" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L39" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>92.38712204931191</v>
@@ -33986,25 +33988,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S39" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T39" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H40" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I40" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J40" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K40" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L40" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M40" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N40" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O40" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P40" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R40" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S40" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T40" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H41" t="n">
-        <v>7.299579965395797</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I41" t="n">
-        <v>27.47878009187567</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J41" t="n">
-        <v>60.49483462350904</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K41" t="n">
-        <v>90.66607543251226</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L41" t="n">
-        <v>112.4792838168386</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M41" t="n">
-        <v>125.1548756840039</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N41" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>120.0924793257251</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4961526668007</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q41" t="n">
-        <v>76.97034209575352</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R41" t="n">
-        <v>44.77307359954049</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S41" t="n">
-        <v>16.24207772112358</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T41" t="n">
-        <v>3.120118276433063</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H42" t="n">
-        <v>3.683150298202688</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I42" t="n">
-        <v>13.13021337006862</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J42" t="n">
-        <v>36.03030907065581</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K42" t="n">
-        <v>61.58153702494475</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L42" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
@@ -34223,25 +34225,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>72.82334136382771</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q42" t="n">
-        <v>48.68047514936013</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S42" t="n">
-        <v>7.083624665253573</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T42" t="n">
-        <v>1.537154915553255</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H43" t="n">
-        <v>2.842608248195206</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I43" t="n">
-        <v>9.614875342566192</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J43" t="n">
-        <v>22.6042580227138</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K43" t="n">
-        <v>37.1457396850048</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L43" t="n">
-        <v>47.53375796624168</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M43" t="n">
-        <v>50.1176830507463</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N43" t="n">
-        <v>48.92599656632913</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O43" t="n">
-        <v>45.19107673102151</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P43" t="n">
-        <v>38.668773143138</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.77225416577303</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R43" t="n">
-        <v>14.375808175433</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S43" t="n">
-        <v>5.571860952750718</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T43" t="n">
-        <v>1.366079628478267</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7127625988425041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H44" t="n">
-        <v>7.299579965395797</v>
+        <v>8.72895933157592</v>
       </c>
       <c r="I44" t="n">
-        <v>27.47878009187567</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J44" t="n">
-        <v>60.49483462350904</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K44" t="n">
-        <v>90.66607543251226</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L44" t="n">
-        <v>112.4792838168386</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M44" t="n">
-        <v>125.1548756840039</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N44" t="n">
-        <v>127.1800124179652</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>120.0924793257251</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P44" t="n">
-        <v>102.4961526668007</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q44" t="n">
-        <v>76.97034209575352</v>
+        <v>92.04241738242102</v>
       </c>
       <c r="R44" t="n">
-        <v>44.77307359954049</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S44" t="n">
-        <v>16.24207772112358</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T44" t="n">
-        <v>3.120118276433063</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05702100790740032</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3813616112580439</v>
+        <v>0.4560385681198892</v>
       </c>
       <c r="H45" t="n">
-        <v>3.683150298202688</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I45" t="n">
-        <v>13.13021337006862</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J45" t="n">
-        <v>36.03030907065581</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K45" t="n">
-        <v>61.58153702494475</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L45" t="n">
-        <v>82.80397616372572</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>92.38712204931191</v>
@@ -34460,25 +34462,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>90.73562862243467</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>72.82334136382771</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.68047514936013</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S45" t="n">
-        <v>7.083624665253573</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T45" t="n">
-        <v>1.537154915553255</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02508957968802921</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.319720764111935</v>
+        <v>0.3823274161833412</v>
       </c>
       <c r="H46" t="n">
-        <v>2.842608248195206</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I46" t="n">
-        <v>9.614875342566192</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J46" t="n">
-        <v>22.6042580227138</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K46" t="n">
-        <v>37.1457396850048</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L46" t="n">
-        <v>47.53375796624168</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M46" t="n">
-        <v>50.1176830507463</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N46" t="n">
-        <v>48.92599656632913</v>
+        <v>58.50652178740168</v>
       </c>
       <c r="O46" t="n">
-        <v>45.19107673102151</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P46" t="n">
-        <v>38.668773143138</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.77225416577303</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R46" t="n">
-        <v>14.375808175433</v>
+        <v>17.1908309131164</v>
       </c>
       <c r="S46" t="n">
-        <v>5.571860952750718</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T46" t="n">
-        <v>1.366079628478267</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2483.936981113919</v>
+        <v>-14594.6953547515</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18750273.47559707</v>
+        <v>18745859.76244088</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21053405.36034583</v>
+        <v>21053803.36269557</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2889321.954658575</v>
+        <v>2889415.744002385</v>
       </c>
     </row>
     <row r="11">
@@ -8692,7 +8692,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K11" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L11" t="n">
         <v>21.36627421377045</v>
@@ -8707,7 +8707,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P11" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q11" t="n">
         <v>54.25101662582001</v>
@@ -8789,7 +8789,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R12" t="n">
         <v>66.92938550216252</v>
@@ -8865,7 +8865,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P13" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q13" t="n">
         <v>67.08779846355691</v>
@@ -9403,7 +9403,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K20" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L20" t="n">
         <v>21.36627421377045</v>
@@ -9418,7 +9418,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P20" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q20" t="n">
         <v>54.25101662582001</v>
@@ -9500,7 +9500,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R21" t="n">
         <v>66.92938550216252</v>
@@ -9576,7 +9576,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P22" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q22" t="n">
         <v>67.08779846355691</v>
@@ -10114,7 +10114,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K29" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L29" t="n">
         <v>21.36627421377045</v>
@@ -10129,7 +10129,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P29" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q29" t="n">
         <v>54.25101662582001</v>
@@ -10211,7 +10211,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R30" t="n">
         <v>66.92938550216252</v>
@@ -10287,7 +10287,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P31" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q31" t="n">
         <v>67.08779846355691</v>
@@ -10351,7 +10351,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K32" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L32" t="n">
         <v>21.36627421377045</v>
@@ -10366,7 +10366,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P32" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q32" t="n">
         <v>54.25101662582001</v>
@@ -10448,7 +10448,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R33" t="n">
         <v>66.92938550216252</v>
@@ -10524,7 +10524,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P34" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q34" t="n">
         <v>67.08779846355691</v>
@@ -10825,7 +10825,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K38" t="n">
-        <v>36.75248193446046</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L38" t="n">
         <v>21.36627421377045</v>
@@ -10840,7 +10840,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P38" t="n">
-        <v>30.12476724996209</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q38" t="n">
         <v>54.25101662582001</v>
@@ -10922,7 +10922,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.91032407045577</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R39" t="n">
         <v>66.92938550216252</v>
@@ -10998,7 +10998,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P40" t="n">
-        <v>44.18408838467263</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q40" t="n">
         <v>67.08779846355691</v>
@@ -11062,7 +11062,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K41" t="n">
-        <v>36.75248193446046</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L41" t="n">
         <v>21.36627421377045</v>
@@ -11077,7 +11077,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P41" t="n">
-        <v>30.12476724996209</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q41" t="n">
         <v>54.25101662582001</v>
@@ -11159,7 +11159,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.91032407045577</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R42" t="n">
         <v>66.92938550216252</v>
@@ -11235,7 +11235,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P43" t="n">
-        <v>44.18408838467263</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q43" t="n">
         <v>67.08779846355691</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.33910687257023</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K44" t="n">
-        <v>34.63839970564274</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L44" t="n">
-        <v>18.74356826898381</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06276620965638813</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.955249939359391</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P44" t="n">
-        <v>27.73484032479854</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.45628103597114</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R44" t="n">
-        <v>86.59021226200232</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>39.35881349179591</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K45" t="n">
-        <v>15.95670742776333</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.7752299692418</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R45" t="n">
-        <v>66.37728296997503</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>39.43912345791073</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L46" t="n">
-        <v>30.8333799076925</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M46" t="n">
-        <v>30.37019922731282</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N46" t="n">
-        <v>24.48908211499989</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O46" t="n">
-        <v>35.95650756807426</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P46" t="n">
-        <v>43.28243949646259</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.46354350946021</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.1787945667559</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H44" t="n">
-        <v>312.1132605975983</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I44" t="n">
-        <v>104.0941627158228</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4258723809793</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5345070009231</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1270155985377</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4031811807343</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H45" t="n">
-        <v>83.01006974856298</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I45" t="n">
-        <v>33.19205355460607</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>125.1106539432188</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T45" t="n">
-        <v>173.3758182264921</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9325093507683</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1891859453656</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H46" t="n">
-        <v>150.5245272278727</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I46" t="n">
-        <v>120.2658529935248</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J46" t="n">
-        <v>3.043939147996856</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>105.4711485606324</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1249988263355</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T46" t="n">
-        <v>231.7282805352103</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5635496178172</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>247852.4885750521</v>
+        <v>248014.9013727642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675334</v>
       </c>
       <c r="C2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675334</v>
       </c>
       <c r="D2" t="n">
         <v>41330.11154675335</v>
       </c>
       <c r="E2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="F2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="G2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="H2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="I2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="J2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="K2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="L2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="M2" t="n">
-        <v>44631.01950030126</v>
+        <v>44631.01950030124</v>
       </c>
       <c r="N2" t="n">
         <v>44631.01950030126</v>
@@ -26355,7 +26355,7 @@
         <v>44631.01950030126</v>
       </c>
       <c r="P2" t="n">
-        <v>44674.79975877233</v>
+        <v>44631.01950030126</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2751.583545217711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="C4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="D4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="E4" t="n">
         <v>8630.342234784785</v>
       </c>
       <c r="F4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="G4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="H4" t="n">
         <v>8630.342234784785</v>
       </c>
       <c r="I4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="J4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="K4" t="n">
         <v>8630.342234784785</v>
@@ -26450,16 +26450,16 @@
         <v>8630.342234784785</v>
       </c>
       <c r="M4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="N4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="O4" t="n">
-        <v>8630.342234784783</v>
+        <v>8630.342234784785</v>
       </c>
       <c r="P4" t="n">
-        <v>8233.108050727787</v>
+        <v>8630.342234784785</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>4531.866666117264</v>
       </c>
       <c r="P5" t="n">
-        <v>4621.990891278247</v>
+        <v>4531.866666117264</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26113.03426422665</v>
+        <v>-27540.62775837157</v>
       </c>
       <c r="C6" t="n">
-        <v>-26113.03426422665</v>
+        <v>-27540.62775837157</v>
       </c>
       <c r="D6" t="n">
-        <v>-26113.03426422666</v>
+        <v>-27540.62775837156</v>
       </c>
       <c r="E6" t="n">
-        <v>-135545.6515638397</v>
+        <v>-136943.2368038614</v>
       </c>
       <c r="F6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="G6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="H6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="I6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="J6" t="n">
-        <v>31468.81059939921</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="K6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="L6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="M6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937745</v>
       </c>
       <c r="N6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937748</v>
       </c>
       <c r="O6" t="n">
-        <v>31468.81059939922</v>
+        <v>30071.22535937748</v>
       </c>
       <c r="P6" t="n">
-        <v>29068.11727154858</v>
+        <v>30071.22535937748</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>207.8837920237277</v>
       </c>
       <c r="P3" t="n">
-        <v>212.0179307925801</v>
+        <v>207.8837920237277</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.134138768852409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31755,7 +31755,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H11" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I11" t="n">
         <v>32.21885383716488</v>
@@ -31861,13 +31861,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R12" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S12" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T12" t="n">
         <v>1.802313253488733</v>
@@ -31922,7 +31922,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K13" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L13" t="n">
         <v>55.73330384845972</v>
@@ -31937,7 +31937,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P13" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q13" t="n">
         <v>31.39045259558288</v>
@@ -31946,7 +31946,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S13" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T13" t="n">
         <v>1.601727577887737</v>
@@ -32466,7 +32466,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H20" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I20" t="n">
         <v>32.21885383716488</v>
@@ -32572,13 +32572,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R21" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S21" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T21" t="n">
         <v>1.802313253488733</v>
@@ -32633,7 +32633,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K22" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L22" t="n">
         <v>55.73330384845972</v>
@@ -32648,7 +32648,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P22" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q22" t="n">
         <v>31.39045259558288</v>
@@ -32657,7 +32657,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S22" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T22" t="n">
         <v>1.601727577887737</v>
@@ -33177,7 +33177,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H29" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I29" t="n">
         <v>32.21885383716488</v>
@@ -33283,13 +33283,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R30" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S30" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T30" t="n">
         <v>1.802313253488733</v>
@@ -33344,7 +33344,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K31" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L31" t="n">
         <v>55.73330384845972</v>
@@ -33359,7 +33359,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P31" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q31" t="n">
         <v>31.39045259558288</v>
@@ -33368,7 +33368,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S31" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T31" t="n">
         <v>1.601727577887737</v>
@@ -33414,7 +33414,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H32" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I32" t="n">
         <v>32.21885383716488</v>
@@ -33520,13 +33520,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R33" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S33" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T33" t="n">
         <v>1.802313253488733</v>
@@ -33581,7 +33581,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K34" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L34" t="n">
         <v>55.73330384845972</v>
@@ -33596,7 +33596,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P34" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q34" t="n">
         <v>31.39045259558288</v>
@@ -33605,7 +33605,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S34" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T34" t="n">
         <v>1.601727577887737</v>
@@ -33888,7 +33888,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H38" t="n">
-        <v>8.558753306785931</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I38" t="n">
         <v>32.21885383716488</v>
@@ -33994,13 +33994,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.07782908545822</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R39" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S39" t="n">
-        <v>8.305545841702701</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T39" t="n">
         <v>1.802313253488733</v>
@@ -34055,7 +34055,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K40" t="n">
-        <v>43.55335839447933</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L40" t="n">
         <v>55.73330384845972</v>
@@ -34070,7 +34070,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P40" t="n">
-        <v>45.33911424727331</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q40" t="n">
         <v>31.39045259558288</v>
@@ -34079,7 +34079,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S40" t="n">
-        <v>6.533003759171899</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T40" t="n">
         <v>1.601727577887737</v>
@@ -34125,7 +34125,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H41" t="n">
-        <v>8.558753306785931</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I41" t="n">
         <v>32.21885383716488</v>
@@ -34231,13 +34231,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.07782908545822</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R42" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S42" t="n">
-        <v>8.305545841702701</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T42" t="n">
         <v>1.802313253488733</v>
@@ -34292,7 +34292,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K43" t="n">
-        <v>43.55335839447933</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L43" t="n">
         <v>55.73330384845972</v>
@@ -34307,7 +34307,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P43" t="n">
-        <v>45.33911424727331</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q43" t="n">
         <v>31.39045259558288</v>
@@ -34316,7 +34316,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S43" t="n">
-        <v>6.533003759171899</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T43" t="n">
         <v>1.601727577887737</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8523333901209244</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H44" t="n">
-        <v>8.72895933157592</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I44" t="n">
-        <v>32.85958302263697</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J44" t="n">
-        <v>72.34073106977587</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K44" t="n">
-        <v>108.4200034735946</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L44" t="n">
-        <v>134.5046014615079</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M44" t="n">
-        <v>149.6622853880709</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>143.608587484737</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P44" t="n">
-        <v>122.5666069161267</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.04241738242102</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R44" t="n">
-        <v>53.54038731718357</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S44" t="n">
-        <v>19.42254712738058</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T44" t="n">
-        <v>3.731089415254349</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06818667120967394</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4560385681198892</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H45" t="n">
-        <v>4.40437248684209</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I45" t="n">
-        <v>15.70132789360145</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J45" t="n">
-        <v>43.08564384153744</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K45" t="n">
-        <v>73.64022790557001</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -34465,22 +34465,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.21292318667219</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R45" t="n">
-        <v>28.31439460660156</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S45" t="n">
-        <v>8.470716385911096</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T45" t="n">
-        <v>1.8381554565885</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03000253737630852</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3823274161833412</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H46" t="n">
-        <v>3.399238300248254</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I46" t="n">
-        <v>11.49762811576812</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J46" t="n">
-        <v>27.03054832416221</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K46" t="n">
-        <v>44.41949435293726</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L46" t="n">
-        <v>56.84165967511238</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M46" t="n">
-        <v>59.93156033863045</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N46" t="n">
-        <v>58.50652178740168</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O46" t="n">
-        <v>54.04024242562355</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P46" t="n">
-        <v>46.24076313548335</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.01470754967959</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R46" t="n">
-        <v>17.1908309131164</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S46" t="n">
-        <v>6.662924152940588</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T46" t="n">
-        <v>1.633580778237912</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02085422270090954</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
